--- a/excel-files/naming-service/SI-DI-RF.xlsx
+++ b/excel-files/naming-service/SI-DI-RF.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="791" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="991" uniqueCount="168">
   <si>
     <t>Super Section</t>
   </si>
@@ -101,6 +101,9 @@
     <t>02M2</t>
   </si>
   <si>
+    <t>02SB</t>
+  </si>
+  <si>
     <t>03C1</t>
   </si>
   <si>
@@ -119,6 +122,9 @@
     <t>03M2</t>
   </si>
   <si>
+    <t>03SP</t>
+  </si>
+  <si>
     <t>04C1</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
     <t>04M2</t>
   </si>
   <si>
+    <t>04SB</t>
+  </si>
+  <si>
     <t>05C1</t>
   </si>
   <si>
@@ -155,6 +164,9 @@
     <t>05M2</t>
   </si>
   <si>
+    <t>05SA</t>
+  </si>
+  <si>
     <t>06C1</t>
   </si>
   <si>
@@ -173,6 +185,9 @@
     <t>06M2</t>
   </si>
   <si>
+    <t>06SB</t>
+  </si>
+  <si>
     <t>07C1</t>
   </si>
   <si>
@@ -191,6 +206,9 @@
     <t>07M2</t>
   </si>
   <si>
+    <t>07SP</t>
+  </si>
+  <si>
     <t>08C1</t>
   </si>
   <si>
@@ -209,6 +227,9 @@
     <t>08M2</t>
   </si>
   <si>
+    <t>08SB</t>
+  </si>
+  <si>
     <t>09C1</t>
   </si>
   <si>
@@ -227,6 +248,9 @@
     <t>09M2</t>
   </si>
   <si>
+    <t>09SA</t>
+  </si>
+  <si>
     <t>10C1</t>
   </si>
   <si>
@@ -245,6 +269,9 @@
     <t>10M2</t>
   </si>
   <si>
+    <t>10SB</t>
+  </si>
+  <si>
     <t>11C1</t>
   </si>
   <si>
@@ -263,6 +290,9 @@
     <t>11M2</t>
   </si>
   <si>
+    <t>11SP</t>
+  </si>
+  <si>
     <t>12C1</t>
   </si>
   <si>
@@ -287,6 +317,9 @@
     <t>12M2</t>
   </si>
   <si>
+    <t>12SB</t>
+  </si>
+  <si>
     <t>13C1</t>
   </si>
   <si>
@@ -332,6 +365,9 @@
     <t>14M2</t>
   </si>
   <si>
+    <t>14SB</t>
+  </si>
+  <si>
     <t>15C1</t>
   </si>
   <si>
@@ -350,6 +386,9 @@
     <t>15M2</t>
   </si>
   <si>
+    <t>15SP</t>
+  </si>
+  <si>
     <t>16C1</t>
   </si>
   <si>
@@ -362,7 +401,7 @@
     <t>16C4</t>
   </si>
   <si>
-    <t>BPME</t>
+    <t>GBPM</t>
   </si>
   <si>
     <t>16M1</t>
@@ -371,6 +410,9 @@
     <t>16M2</t>
   </si>
   <si>
+    <t>16SB</t>
+  </si>
+  <si>
     <t>17C1</t>
   </si>
   <si>
@@ -419,6 +461,9 @@
     <t>18M2</t>
   </si>
   <si>
+    <t>18SB</t>
+  </si>
+  <si>
     <t>19C1</t>
   </si>
   <si>
@@ -468,9 +513,6 @@
   </si>
   <si>
     <t>Fam</t>
-  </si>
-  <si>
-    <t>03SP</t>
   </si>
   <si>
     <t>RF</t>
@@ -595,10 +637,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G177"/>
+  <dimension ref="A1:G217"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -803,7 +845,7 @@
         <v>7</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>9</v>
@@ -820,7 +862,7 @@
         <v>7</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>9</v>
@@ -837,13 +879,16 @@
         <v>7</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -851,7 +896,7 @@
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>9</v>
@@ -860,7 +905,7 @@
         <v>10</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -868,16 +913,13 @@
         <v>7</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -885,13 +927,16 @@
         <v>7</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -899,13 +944,16 @@
         <v>7</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E19" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -913,7 +961,7 @@
         <v>7</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>9</v>
@@ -927,16 +975,13 @@
         <v>7</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -944,16 +989,13 @@
         <v>7</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E22" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -961,13 +1003,16 @@
         <v>7</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E23" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -975,7 +1020,7 @@
         <v>7</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>9</v>
@@ -984,7 +1029,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -992,7 +1037,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>9</v>
@@ -1001,7 +1046,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1009,7 +1054,7 @@
         <v>7</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>9</v>
@@ -1017,14 +1062,16 @@
       <c r="E26" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="3"/>
+      <c r="F26" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>9</v>
@@ -1032,20 +1079,22 @@
       <c r="E27" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="3"/>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E28" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1053,7 +1102,7 @@
         <v>7</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>9</v>
@@ -1062,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1070,7 +1119,7 @@
         <v>7</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>9</v>
@@ -1078,16 +1127,14 @@
       <c r="E30" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F30" s="3"/>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B31" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>9</v>
@@ -1095,22 +1142,20 @@
       <c r="E31" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F31" s="3"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E32" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1118,7 +1163,7 @@
         <v>7</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>9</v>
@@ -1127,7 +1172,7 @@
         <v>10</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1135,13 +1180,16 @@
         <v>7</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E34" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1149,13 +1197,16 @@
         <v>7</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E35" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1163,13 +1214,16 @@
         <v>7</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E36" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1177,16 +1231,13 @@
         <v>7</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1194,7 +1245,7 @@
         <v>7</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>9</v>
@@ -1203,7 +1254,7 @@
         <v>10</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1211,13 +1262,16 @@
         <v>7</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E39" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1225,16 +1279,13 @@
         <v>7</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E40" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1242,16 +1293,13 @@
         <v>7</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E41" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1259,7 +1307,7 @@
         <v>7</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>9</v>
@@ -1273,13 +1321,16 @@
         <v>7</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1287,13 +1338,16 @@
         <v>7</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E44" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1301,7 +1355,7 @@
         <v>7</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>9</v>
@@ -1318,7 +1372,7 @@
         <v>7</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>9</v>
@@ -1335,7 +1389,7 @@
         <v>7</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>9</v>
@@ -1343,14 +1397,13 @@
       <c r="E47" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="3"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>9</v>
@@ -1367,7 +1420,7 @@
         <v>7</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>9</v>
@@ -1384,7 +1437,7 @@
         <v>7</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>9</v>
@@ -1398,7 +1451,7 @@
         <v>7</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D51" s="3" t="s">
         <v>9</v>
@@ -1412,7 +1465,7 @@
         <v>7</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D52" s="3" t="s">
         <v>9</v>
@@ -1426,7 +1479,7 @@
         <v>7</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D53" s="3" t="s">
         <v>9</v>
@@ -1443,7 +1496,7 @@
         <v>7</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>9</v>
@@ -1460,7 +1513,7 @@
         <v>7</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>9</v>
@@ -1468,14 +1521,16 @@
       <c r="E55" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F55" s="3"/>
+      <c r="F55" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>9</v>
@@ -1484,7 +1539,7 @@
         <v>10</v>
       </c>
       <c r="F56" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1492,7 +1547,7 @@
         <v>7</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>9</v>
@@ -1500,22 +1555,23 @@
       <c r="E57" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F57" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F57" s="3"/>
     </row>
     <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1523,13 +1579,16 @@
         <v>7</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F59" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1537,7 +1596,7 @@
         <v>7</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>9</v>
@@ -1545,23 +1604,19 @@
       <c r="E60" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F60" s="3"/>
     </row>
     <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E61" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1569,16 +1624,13 @@
         <v>7</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1586,7 +1638,7 @@
         <v>7</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>9</v>
@@ -1594,14 +1646,16 @@
       <c r="E63" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F63" s="3"/>
+      <c r="F63" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="64" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>9</v>
@@ -1610,7 +1664,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1618,7 +1672,7 @@
         <v>7</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>9</v>
@@ -1627,7 +1681,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1635,13 +1689,16 @@
         <v>7</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F66" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1649,7 +1706,7 @@
         <v>7</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D67" s="3" t="s">
         <v>9</v>
@@ -1657,19 +1714,23 @@
       <c r="E67" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F67" s="3"/>
     </row>
     <row r="68" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B68" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D68" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1677,7 +1738,7 @@
         <v>7</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="D69" s="3" t="s">
         <v>9</v>
@@ -1686,7 +1747,7 @@
         <v>10</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1694,16 +1755,13 @@
         <v>7</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D70" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E70" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F70" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1711,7 +1769,7 @@
         <v>7</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D71" s="3" t="s">
         <v>9</v>
@@ -1725,7 +1783,7 @@
         <v>7</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>9</v>
@@ -1733,16 +1791,14 @@
       <c r="E72" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F72" s="3"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B73" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>9</v>
@@ -1751,7 +1807,7 @@
         <v>10</v>
       </c>
       <c r="F73" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1759,7 +1815,7 @@
         <v>7</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>9</v>
@@ -1767,14 +1823,16 @@
       <c r="E74" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F74" s="3"/>
+      <c r="F74" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B75" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>9</v>
@@ -1782,20 +1840,25 @@
       <c r="E75" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F75" s="3"/>
+      <c r="F75" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="76" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B76" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F76" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1803,7 +1866,7 @@
         <v>7</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>9</v>
@@ -1811,16 +1874,14 @@
       <c r="E77" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F77" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F77" s="3"/>
     </row>
     <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B78" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>9</v>
@@ -1829,7 +1890,7 @@
         <v>10</v>
       </c>
       <c r="F78" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1837,13 +1898,16 @@
         <v>7</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F79" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1851,16 +1915,13 @@
         <v>7</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E80" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F80" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1868,16 +1929,13 @@
         <v>7</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E81" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1885,7 +1943,7 @@
         <v>7</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>9</v>
@@ -1899,13 +1957,16 @@
         <v>7</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E83" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1913,7 +1974,7 @@
         <v>7</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>9</v>
@@ -1921,14 +1982,16 @@
       <c r="E84" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F84" s="3"/>
+      <c r="F84" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B85" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>9</v>
@@ -1945,7 +2008,7 @@
         <v>7</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>9</v>
@@ -1962,7 +2025,7 @@
         <v>7</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>9</v>
@@ -1976,7 +2039,7 @@
         <v>7</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>9</v>
@@ -1993,7 +2056,7 @@
         <v>7</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>9</v>
@@ -2010,7 +2073,7 @@
         <v>7</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>9</v>
@@ -2018,13 +2081,14 @@
       <c r="E90" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F90" s="3"/>
     </row>
     <row r="91" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B91" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>9</v>
@@ -2032,13 +2096,14 @@
       <c r="E91" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F91" s="3"/>
     </row>
     <row r="92" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B92" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>9</v>
@@ -2052,7 +2117,7 @@
         <v>7</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>9</v>
@@ -2069,7 +2134,7 @@
         <v>7</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>9</v>
@@ -2086,13 +2151,16 @@
         <v>7</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2100,7 +2168,7 @@
         <v>7</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>9</v>
@@ -2109,7 +2177,7 @@
         <v>10</v>
       </c>
       <c r="F96" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2117,16 +2185,13 @@
         <v>7</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2134,13 +2199,16 @@
         <v>7</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E98" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2148,13 +2216,16 @@
         <v>7</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E99" s="3" t="s">
-        <v>86</v>
+        <v>10</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2162,7 +2233,7 @@
         <v>7</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>9</v>
@@ -2176,13 +2247,13 @@
         <v>7</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>88</v>
+        <v>10</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2190,7 +2261,7 @@
         <v>7</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>9</v>
@@ -2198,13 +2269,14 @@
       <c r="E102" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F102" s="3"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B103" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>9</v>
@@ -2221,7 +2293,7 @@
         <v>7</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>9</v>
@@ -2238,13 +2310,16 @@
         <v>7</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F105" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2252,7 +2327,7 @@
         <v>7</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>9</v>
@@ -2261,7 +2336,7 @@
         <v>10</v>
       </c>
       <c r="F106" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2269,16 +2344,13 @@
         <v>7</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2286,13 +2358,16 @@
         <v>7</v>
       </c>
       <c r="C108" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E108" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F108" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2300,13 +2375,16 @@
         <v>7</v>
       </c>
       <c r="C109" s="3" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>94</v>
+        <v>10</v>
+      </c>
+      <c r="F109" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,7 +2392,7 @@
         <v>7</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>9</v>
@@ -2328,7 +2406,7 @@
         <v>7</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>9</v>
@@ -2342,13 +2420,13 @@
         <v>7</v>
       </c>
       <c r="C112" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>98</v>
+        <v>10</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,7 +2434,7 @@
         <v>7</v>
       </c>
       <c r="C113" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>9</v>
@@ -2373,7 +2451,7 @@
         <v>7</v>
       </c>
       <c r="C114" s="3" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>9</v>
@@ -2390,13 +2468,16 @@
         <v>7</v>
       </c>
       <c r="C115" s="3" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F115" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2404,7 +2485,7 @@
         <v>7</v>
       </c>
       <c r="C116" s="3" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>9</v>
@@ -2413,7 +2494,7 @@
         <v>10</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2421,16 +2502,13 @@
         <v>7</v>
       </c>
       <c r="C117" s="3" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E117" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2438,13 +2516,16 @@
         <v>7</v>
       </c>
       <c r="C118" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2452,13 +2533,16 @@
         <v>7</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>94</v>
+        <v>10</v>
+      </c>
+      <c r="F119" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2466,7 +2550,7 @@
         <v>7</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>9</v>
@@ -2474,38 +2558,33 @@
       <c r="E120" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F120" s="3"/>
     </row>
     <row r="121" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B121" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C121" s="3" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F121" s="3"/>
+        <v>96</v>
+      </c>
     </row>
     <row r="122" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B122" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C122" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E122" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2513,16 +2592,13 @@
         <v>7</v>
       </c>
       <c r="C123" s="3" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2530,7 +2606,7 @@
         <v>7</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>9</v>
@@ -2544,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="C125" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>9</v>
@@ -2561,7 +2637,7 @@
         <v>7</v>
       </c>
       <c r="C126" s="3" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>9</v>
@@ -2578,13 +2654,16 @@
         <v>7</v>
       </c>
       <c r="C127" s="3" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2592,13 +2671,16 @@
         <v>7</v>
       </c>
       <c r="C128" s="3" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E128" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2606,7 +2688,7 @@
         <v>7</v>
       </c>
       <c r="C129" s="3" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>9</v>
@@ -2614,14 +2696,13 @@
       <c r="E129" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F129" s="3"/>
     </row>
     <row r="130" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B130" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C130" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>9</v>
@@ -2638,7 +2719,7 @@
         <v>7</v>
       </c>
       <c r="C131" s="3" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>9</v>
@@ -2655,7 +2736,7 @@
         <v>7</v>
       </c>
       <c r="C132" s="3" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>9</v>
@@ -2669,16 +2750,13 @@
         <v>7</v>
       </c>
       <c r="C133" s="3" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="D133" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
     </row>
     <row r="134" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2686,16 +2764,13 @@
         <v>7</v>
       </c>
       <c r="C134" s="3" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E134" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="135" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2703,7 +2778,7 @@
         <v>7</v>
       </c>
       <c r="C135" s="3" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>9</v>
@@ -2711,20 +2786,19 @@
       <c r="E135" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F135" s="3"/>
     </row>
     <row r="136" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B136" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
     </row>
     <row r="137" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2732,7 +2806,7 @@
         <v>7</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>9</v>
@@ -2740,14 +2814,16 @@
       <c r="E137" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F137" s="3"/>
+      <c r="F137" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="138" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B138" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C138" s="3" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>9</v>
@@ -2755,14 +2831,16 @@
       <c r="E138" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F138" s="3"/>
+      <c r="F138" s="3" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="139" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B139" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C139" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>9</v>
@@ -2779,7 +2857,7 @@
         <v>7</v>
       </c>
       <c r="C140" s="3" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>9</v>
@@ -2796,7 +2874,7 @@
         <v>7</v>
       </c>
       <c r="C141" s="3" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>9</v>
@@ -2810,7 +2888,7 @@
         <v>7</v>
       </c>
       <c r="C142" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D142" s="3" t="s">
         <v>9</v>
@@ -2827,7 +2905,7 @@
         <v>7</v>
       </c>
       <c r="C143" s="3" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D143" s="3" t="s">
         <v>9</v>
@@ -2844,7 +2922,7 @@
         <v>7</v>
       </c>
       <c r="C144" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D144" s="3" t="s">
         <v>9</v>
@@ -2852,29 +2930,27 @@
       <c r="E144" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F144" s="3"/>
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B145" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C145" s="3" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D145" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E145" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="F145" s="3"/>
+        <v>105</v>
+      </c>
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B146" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C146" s="3" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>9</v>
@@ -2882,13 +2958,14 @@
       <c r="E146" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F146" s="3"/>
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B147" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C147" s="3" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>9</v>
@@ -2896,19 +2973,23 @@
       <c r="E147" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F147" s="3"/>
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B148" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C148" s="3" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>126</v>
+        <v>10</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2916,7 +2997,7 @@
         <v>7</v>
       </c>
       <c r="C149" s="3" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>9</v>
@@ -2925,7 +3006,7 @@
         <v>10</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2933,7 +3014,7 @@
         <v>7</v>
       </c>
       <c r="C150" s="3" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D150" s="3" t="s">
         <v>9</v>
@@ -2942,7 +3023,7 @@
         <v>10</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2950,13 +3031,16 @@
         <v>7</v>
       </c>
       <c r="C151" s="3" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D151" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E151" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2964,16 +3048,13 @@
         <v>7</v>
       </c>
       <c r="C152" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D152" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E152" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2981,7 +3062,7 @@
         <v>7</v>
       </c>
       <c r="C153" s="3" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="D153" s="3" t="s">
         <v>9</v>
@@ -2990,7 +3071,7 @@
         <v>10</v>
       </c>
       <c r="F153" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2998,13 +3079,16 @@
         <v>7</v>
       </c>
       <c r="C154" s="3" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
       <c r="D154" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E154" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3012,13 +3096,13 @@
         <v>7</v>
       </c>
       <c r="C155" s="3" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="D155" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E155" s="3" t="s">
-        <v>131</v>
+        <v>10</v>
       </c>
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3026,7 +3110,7 @@
         <v>7</v>
       </c>
       <c r="C156" s="3" t="s">
-        <v>132</v>
+        <v>121</v>
       </c>
       <c r="D156" s="3" t="s">
         <v>9</v>
@@ -3040,7 +3124,7 @@
         <v>7</v>
       </c>
       <c r="C157" s="3" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="D157" s="3" t="s">
         <v>9</v>
@@ -3048,13 +3132,14 @@
       <c r="E157" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F157" s="3"/>
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B158" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C158" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D158" s="3" t="s">
         <v>9</v>
@@ -3071,7 +3156,7 @@
         <v>7</v>
       </c>
       <c r="C159" s="3" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="D159" s="3" t="s">
         <v>9</v>
@@ -3088,13 +3173,16 @@
         <v>7</v>
       </c>
       <c r="C160" s="3" t="s">
-        <v>135</v>
+        <v>124</v>
       </c>
       <c r="D160" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E160" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3102,7 +3190,7 @@
         <v>7</v>
       </c>
       <c r="C161" s="3" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="D161" s="3" t="s">
         <v>9</v>
@@ -3111,7 +3199,7 @@
         <v>10</v>
       </c>
       <c r="F161" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3119,16 +3207,13 @@
         <v>7</v>
       </c>
       <c r="C162" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D162" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E162" s="3" t="s">
         <v>10</v>
-      </c>
-      <c r="F162" s="3" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3136,13 +3221,16 @@
         <v>7</v>
       </c>
       <c r="C163" s="3" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D163" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E163" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F163" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3150,13 +3238,16 @@
         <v>7</v>
       </c>
       <c r="C164" s="3" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D164" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E164" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3164,7 +3255,7 @@
         <v>7</v>
       </c>
       <c r="C165" s="3" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="D165" s="3" t="s">
         <v>9</v>
@@ -3172,19 +3263,20 @@
       <c r="E165" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F165" s="3"/>
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B166" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C166" s="3" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="D166" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E166" s="3" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3192,7 +3284,7 @@
         <v>7</v>
       </c>
       <c r="C167" s="3" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="D167" s="3" t="s">
         <v>9</v>
@@ -3200,16 +3292,14 @@
       <c r="E167" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F167" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="F167" s="3"/>
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B168" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="D168" s="3" t="s">
         <v>9</v>
@@ -3217,22 +3307,23 @@
       <c r="E168" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F168" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="F168" s="3"/>
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B169" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C169" s="3" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="D169" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E169" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3240,7 +3331,7 @@
         <v>7</v>
       </c>
       <c r="C170" s="3" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="D170" s="3" t="s">
         <v>9</v>
@@ -3249,7 +3340,7 @@
         <v>10</v>
       </c>
       <c r="F170" s="3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3257,7 +3348,7 @@
         <v>7</v>
       </c>
       <c r="C171" s="3" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="D171" s="3" t="s">
         <v>9</v>
@@ -3266,7 +3357,7 @@
         <v>10</v>
       </c>
       <c r="F171" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3274,13 +3365,16 @@
         <v>7</v>
       </c>
       <c r="C172" s="3" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="D172" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E172" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F172" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3288,7 +3382,7 @@
         <v>7</v>
       </c>
       <c r="C173" s="3" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="D173" s="3" t="s">
         <v>9</v>
@@ -3302,13 +3396,16 @@
         <v>7</v>
       </c>
       <c r="C174" s="3" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="D174" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E174" s="3" t="s">
         <v>10</v>
+      </c>
+      <c r="F174" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3316,13 +3413,16 @@
         <v>7</v>
       </c>
       <c r="C175" s="3" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D175" s="3" t="s">
         <v>9</v>
       </c>
       <c r="E175" s="3" t="s">
-        <v>149</v>
+        <v>10</v>
+      </c>
+      <c r="F175" s="3" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3330,7 +3430,7 @@
         <v>7</v>
       </c>
       <c r="C176" s="3" t="s">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="D176" s="3" t="s">
         <v>9</v>
@@ -3338,19 +3438,641 @@
       <c r="E176" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="F176" s="3"/>
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B177" s="3" t="s">
         <v>7</v>
       </c>
       <c r="C177" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D177" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E177" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B178" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D178" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E178" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B179" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D179" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E179" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B180" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D180" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E180" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B181" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D181" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E181" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F181" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B182" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C182" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D182" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E182" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F182" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B183" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C183" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D183" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E183" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F183" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B184" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C184" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D184" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F184" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B185" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C185" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D185" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B186" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D186" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F186" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B187" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D187" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F187" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B188" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D188" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B189" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D189" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B190" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C190" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D190" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B191" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C191" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="D191" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B192" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D192" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F192" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B193" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C193" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="D193" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F193" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B194" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C194" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D194" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F194" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B195" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D195" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F195" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B196" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D196" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B197" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C197" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="D177" s="3" t="s">
+      <c r="D197" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F197" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B198" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="D198" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F198" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B199" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C199" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="E177" s="3" t="s">
+      <c r="D199" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B200" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C200" s="3" t="s">
         <v>153</v>
+      </c>
+      <c r="D200" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="201" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B201" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C201" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="D201" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="202" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B202" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C202" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D202" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="203" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B203" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D203" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F203" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="204" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B204" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D204" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F204" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="205" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B205" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D205" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F205" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="206" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B206" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C206" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D206" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F206" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="207" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B207" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C207" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="D207" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="208" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B208" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C208" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D208" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F208" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="209" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B209" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D209" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F209" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="210" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B210" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C210" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D210" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="211" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B211" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C211" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D211" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="212" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B212" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C212" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D212" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="213" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B213" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C213" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D213" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="214" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B214" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D214" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F214" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="215" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B215" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D215" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F215" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="216" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B216" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D216" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="217" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B217" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D217" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="E217" s="3" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>
